--- a/biology/Zoologie/Callipurbeckia/Callipurbeckia.xlsx
+++ b/biology/Zoologie/Callipurbeckia/Callipurbeckia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callipurbeckia est un genre éteint de poissons osseux à nageoires rayonnées. Ces espèces étaient carnivores et vivaient le long des fleuves et lacs d'Europe du Jurassique supérieur (Kimméridgien) jusqu'au Crétacé inférieur.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Callipurbeckia a été créé en 2012 par la paléontologue argentine Adriana López-Arbarello (d)[1] avec pour espèce type Lepidotes minor décrite par Louis Agassiz en 1833 sur la base d'un spécimen du Crétacé inférieur (Berriasien) de Swanage (Dorset dans le Sud-Ouest de l'Angleterre)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Callipurbeckia a été créé en 2012 par la paléontologue argentine Adriana López-Arbarello (d) avec pour espèce type Lepidotes minor décrite par Louis Agassiz en 1833 sur la base d'un spécimen du Crétacé inférieur (Berriasien) de Swanage (Dorset dans le Sud-Ouest de l'Angleterre).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (2 août 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (2 août 2022) :
 † Callipurbeckia minor (Agassiz, 1833) - espèce type - Crétacé inférieur (Berriasien) de Swanage (Angleterre)
 † Callipurbeckia notopterus (Agassiz, 1835) - calcaire de Solnhofen en Bavière (Allemagne)
 † Callipurbeckia tendaguruensis Arratia &amp; Schultze, 1999 - formation de Tendaguru en Tanzanie</t>
@@ -575,7 +591,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom générique, Callipurbeckia, dérive du grec ancien κάλλος, kállos, « beauté » et Purbeck le nom actuel de l'endroit où vivaient ces poissons.
 </t>
